--- a/WorkerDay_template.xlsx
+++ b/WorkerDay_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102FE009-05BF-485E-AEF3-BF6DFB88A0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B2B91A-BE76-4E88-AA0E-A89CC9AABB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="15930" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
   <si>
-    <t>shift_type</t>
+    <t>regime_code</t>
   </si>
   <si>
     <t>type</t>
@@ -34,16 +34,7 @@
     <t>duration_m</t>
   </si>
   <si>
-    <t>decrease_m</t>
-  </si>
-  <si>
-    <t>time_evening_m</t>
-  </si>
-  <si>
-    <t>time_night_m</t>
-  </si>
-  <si>
-    <t>time_holiday_m</t>
+    <t>delete</t>
   </si>
   <si>
     <t>1</t>
@@ -51,18 +42,12 @@
   <si>
     <t>60</t>
   </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,12 +59,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,11 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,21 +387,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,490 +415,260 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>45047</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>45048</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>45049</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>45050</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>45051</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>45052</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>45053</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>45054</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>45055</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>45056</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>45057</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>45058</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>45059</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>45060</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <v>45061</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>45062</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>45063</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
         <v>45064</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkerDay_template.xlsx
+++ b/WorkerDay_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B2B91A-BE76-4E88-AA0E-A89CC9AABB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBDDEAE-8E89-443D-9307-12E2692E50A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="760" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A19"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>45048</v>
+        <v>45079</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>45049</v>
+        <v>45080</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>45050</v>
+        <v>45081</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>45051</v>
+        <v>45082</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45052</v>
+        <v>45083</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>45053</v>
+        <v>45084</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>45054</v>
+        <v>45085</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>45055</v>
+        <v>45086</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>45056</v>
+        <v>45087</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>45057</v>
+        <v>45088</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>45058</v>
+        <v>45089</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>45059</v>
+        <v>45090</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>45060</v>
+        <v>45091</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>45061</v>
+        <v>45092</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>45062</v>
+        <v>45093</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>45063</v>
+        <v>45094</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>45064</v>
+        <v>45095</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>

--- a/WorkerDay_template.xlsx
+++ b/WorkerDay_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBDDEAE-8E89-443D-9307-12E2692E50A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4904F4C-7AAA-41B7-A051-0E676E37A1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="760" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C19"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45083</v>
+        <v>45144</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>45084</v>
+        <v>45145</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>45085</v>
+        <v>45146</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>45086</v>
+        <v>45147</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>45087</v>
+        <v>45148</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>45088</v>
+        <v>45149</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>45089</v>
+        <v>45150</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>45090</v>
+        <v>45151</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>45091</v>
+        <v>45152</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>45092</v>
+        <v>45153</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>45093</v>
+        <v>45154</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>45094</v>
+        <v>45155</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>45095</v>
+        <v>45156</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>

--- a/WorkerDay_template.xlsx
+++ b/WorkerDay_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4904F4C-7AAA-41B7-A051-0E676E37A1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F29984-B627-4DF3-87D2-C97D34B12D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1140" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="7">
   <si>
     <t>regime_code</t>
   </si>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,15 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
     <col min="3" max="3" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -424,7 +431,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -438,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>45079</v>
+        <v>45171</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -452,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>45080</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -466,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>45081</v>
+        <v>45173</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -480,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>45082</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -494,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45144</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -508,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>45145</v>
+        <v>45176</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -522,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>45146</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -536,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>45147</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -550,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>45148</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -564,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>45149</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -578,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>45150</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -592,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>45151</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -606,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>45152</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -620,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>45153</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -634,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>45154</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -648,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>45155</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -662,13 +669,154 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>45156</v>
+        <v>45187</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45189</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45190</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45192</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45193</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45194</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45195</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45196</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45197</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/WorkerDay_template.xlsx
+++ b/WorkerDay_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F29984-B627-4DF3-87D2-C97D34B12D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823ABEEF-43D9-4483-9F96-009464688327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1140" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="380" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>regime_code</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
 </sst>
 </file>
@@ -396,8 +393,8 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,8 +430,8 @@
       <c r="C2" s="2">
         <v>45170</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -447,8 +444,8 @@
       <c r="C3" s="2">
         <v>45171</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -461,8 +458,8 @@
       <c r="C4" s="2">
         <v>45172</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D4">
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -475,8 +472,8 @@
       <c r="C5" s="2">
         <v>45173</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="D5">
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -489,8 +486,8 @@
       <c r="C6" s="2">
         <v>45174</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
+      <c r="D6">
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -503,8 +500,8 @@
       <c r="C7" s="2">
         <v>45175</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7">
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -517,8 +514,8 @@
       <c r="C8" s="2">
         <v>45176</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="D8">
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,8 +528,8 @@
       <c r="C9" s="2">
         <v>45177</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
+      <c r="D9">
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -545,8 +542,8 @@
       <c r="C10" s="2">
         <v>45178</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
+      <c r="D10">
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -559,8 +556,8 @@
       <c r="C11" s="2">
         <v>45179</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
+      <c r="D11">
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -573,8 +570,8 @@
       <c r="C12" s="2">
         <v>45180</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
+      <c r="D12">
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -587,8 +584,8 @@
       <c r="C13" s="2">
         <v>45181</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
+      <c r="D13">
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -601,8 +598,8 @@
       <c r="C14" s="2">
         <v>45182</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
+      <c r="D14">
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -615,8 +612,8 @@
       <c r="C15" s="2">
         <v>45183</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
+      <c r="D15">
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -629,8 +626,8 @@
       <c r="C16" s="2">
         <v>45184</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
+      <c r="D16">
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -643,8 +640,8 @@
       <c r="C17" s="2">
         <v>45185</v>
       </c>
-      <c r="D17" t="s">
-        <v>6</v>
+      <c r="D17">
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,8 +654,8 @@
       <c r="C18" s="2">
         <v>45186</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
+      <c r="D18">
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,8 +668,8 @@
       <c r="C19" s="2">
         <v>45187</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
+      <c r="D19">
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -685,8 +682,8 @@
       <c r="C20" s="2">
         <v>45188</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
+      <c r="D20">
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -699,8 +696,8 @@
       <c r="C21" s="2">
         <v>45189</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
+      <c r="D21">
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -713,8 +710,8 @@
       <c r="C22" s="2">
         <v>45190</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
+      <c r="D22">
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -727,8 +724,8 @@
       <c r="C23" s="2">
         <v>45191</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
+      <c r="D23">
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -741,8 +738,8 @@
       <c r="C24" s="2">
         <v>45192</v>
       </c>
-      <c r="D24" t="s">
-        <v>6</v>
+      <c r="D24">
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -755,8 +752,8 @@
       <c r="C25" s="2">
         <v>45193</v>
       </c>
-      <c r="D25" t="s">
-        <v>6</v>
+      <c r="D25">
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -769,8 +766,8 @@
       <c r="C26" s="2">
         <v>45194</v>
       </c>
-      <c r="D26" t="s">
-        <v>6</v>
+      <c r="D26">
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -783,8 +780,8 @@
       <c r="C27" s="2">
         <v>45195</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
+      <c r="D27">
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -797,8 +794,8 @@
       <c r="C28" s="2">
         <v>45196</v>
       </c>
-      <c r="D28" t="s">
-        <v>6</v>
+      <c r="D28">
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -811,8 +808,8 @@
       <c r="C29" s="2">
         <v>45197</v>
       </c>
-      <c r="D29" t="s">
-        <v>6</v>
+      <c r="D29">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
